--- a/springTeamProject/todolist.xlsx
+++ b/springTeamProject/todolist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soldesk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soldesk\git\practice\springTeamProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>todo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,35 +82,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>재귀함수로 테스트 값 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터셉터로 로그인안한 유저는 댓글 등록,수정,삭제 안보이게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터로 게시글 주인과 댓글 주인만 댓글이 보이도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신고버튼누르면 신고종류선택과 상세내용작성칸 제공 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고하기클릭시 작성자id,종류,내용,해당페이지의 판매글 정보를 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 폼에서 히든값으로 이전 댓글 내용을 추가 where문에서 사용?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록용댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>관리자 유저 분리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재귀함수로 테스트 값 넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터셉터로 로그인안한 유저는 댓글 등록,수정,삭제 안보이게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필터로 게시글 주인과 댓글 주인만 댓글이 보이도록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">신고버튼누르면 신고종류선택과 상세내용작성칸 제공 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신고하기클릭시 작성자id,종류,내용,해당페이지의 판매글 정보를 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aop</t>
+    <t>사용용도가 한정되있어서 더 고민 후 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,28 +461,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K24"/>
+  <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -470,7 +493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -478,63 +501,69 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
         <v>20</v>
-      </c>
-      <c r="K19" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
@@ -545,6 +574,16 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
